--- a/BackTest/2019-10-29 BackTest THETA.xlsx
+++ b/BackTest/2019-10-29 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>108906.9745230572</v>
+        <v>120.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,13 +489,13 @@
         <v>5310.9338</v>
       </c>
       <c r="G3" t="n">
-        <v>103596.0407230572</v>
+        <v>120.95</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,13 +525,13 @@
         <v>3130.0496</v>
       </c>
       <c r="G4" t="n">
-        <v>100465.9911230572</v>
+        <v>121</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,13 +561,13 @@
         <v>29.9322</v>
       </c>
       <c r="G5" t="n">
-        <v>100465.9911230572</v>
+        <v>121</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>7821.3809</v>
       </c>
       <c r="G6" t="n">
-        <v>92644.61022305716</v>
+        <v>121</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>250</v>
       </c>
       <c r="G7" t="n">
-        <v>92894.61022305716</v>
+        <v>120.95</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,13 +669,13 @@
         <v>5295.0916</v>
       </c>
       <c r="G8" t="n">
-        <v>92894.61022305716</v>
+        <v>120.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,13 +705,13 @@
         <v>618.909</v>
       </c>
       <c r="G9" t="n">
-        <v>93513.51922305716</v>
+        <v>120.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,13 +741,13 @@
         <v>88.33880000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>93513.51922305716</v>
+        <v>120.85</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>1899.6072</v>
       </c>
       <c r="G11" t="n">
-        <v>91613.91202305716</v>
+        <v>120.85</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,13 +813,13 @@
         <v>25026.628</v>
       </c>
       <c r="G12" t="n">
-        <v>116640.5400230572</v>
+        <v>120.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>4900</v>
       </c>
       <c r="G13" t="n">
-        <v>111740.5400230572</v>
+        <v>120.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,13 +885,13 @@
         <v>3116.1666</v>
       </c>
       <c r="G14" t="n">
-        <v>111740.5400230572</v>
+        <v>120.85</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>4066.4384</v>
       </c>
       <c r="G15" t="n">
-        <v>111740.5400230572</v>
+        <v>120.75</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,13 +957,13 @@
         <v>24964.0614</v>
       </c>
       <c r="G16" t="n">
-        <v>86776.47862305716</v>
+        <v>120.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,13 +993,13 @@
         <v>1628.6242</v>
       </c>
       <c r="G17" t="n">
-        <v>86776.47862305716</v>
+        <v>120.45</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>86776.47862305716</v>
+        <v>120.35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>56.3801</v>
       </c>
       <c r="G19" t="n">
-        <v>86832.85872305716</v>
+        <v>120.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,13 +1101,13 @@
         <v>229.9216</v>
       </c>
       <c r="G20" t="n">
-        <v>86602.93712305716</v>
+        <v>120.25</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>8000</v>
       </c>
       <c r="G21" t="n">
-        <v>86602.93712305716</v>
+        <v>120.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>12.8583</v>
       </c>
       <c r="G22" t="n">
-        <v>86602.93712305716</v>
+        <v>120.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>10600</v>
       </c>
       <c r="G23" t="n">
-        <v>97202.93712305716</v>
+        <v>120.05</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>623</v>
       </c>
       <c r="G24" t="n">
-        <v>97202.93712305716</v>
+        <v>120.05</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,13 +1281,13 @@
         <v>40023</v>
       </c>
       <c r="G25" t="n">
-        <v>97202.93712305716</v>
+        <v>120.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,13 +1317,13 @@
         <v>3666.1007</v>
       </c>
       <c r="G26" t="n">
-        <v>93536.83642305716</v>
+        <v>120.05</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>93537.83642305716</v>
+        <v>120</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>1673.4544</v>
       </c>
       <c r="G28" t="n">
-        <v>91864.38202305716</v>
+        <v>119.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>196.7555</v>
       </c>
       <c r="G29" t="n">
-        <v>92061.13752305716</v>
+        <v>119.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>47902.0893</v>
       </c>
       <c r="G30" t="n">
-        <v>92061.13752305716</v>
+        <v>119.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>600</v>
       </c>
       <c r="G31" t="n">
-        <v>92661.13752305716</v>
+        <v>119.85</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>10683.0407</v>
       </c>
       <c r="G32" t="n">
-        <v>92661.13752305716</v>
+        <v>119.85</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,13 +1569,13 @@
         <v>651</v>
       </c>
       <c r="G33" t="n">
-        <v>92661.13752305716</v>
+        <v>119.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>7235.6803</v>
       </c>
       <c r="G34" t="n">
-        <v>99896.81782305715</v>
+        <v>120</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>7834.0163</v>
       </c>
       <c r="G35" t="n">
-        <v>99896.81782305715</v>
+        <v>120.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>119.3975</v>
       </c>
       <c r="G36" t="n">
-        <v>99896.81782305715</v>
+        <v>120.25</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>5790.2484</v>
       </c>
       <c r="G37" t="n">
-        <v>94106.56942305715</v>
+        <v>120.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>3700</v>
       </c>
       <c r="G38" t="n">
-        <v>94106.56942305715</v>
+        <v>120.35</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>2630.7833</v>
       </c>
       <c r="G39" t="n">
-        <v>94106.56942305715</v>
+        <v>120.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>12797.3901</v>
       </c>
       <c r="G40" t="n">
-        <v>106903.9595230572</v>
+        <v>120.35</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>9900.641600000001</v>
       </c>
       <c r="G41" t="n">
-        <v>106903.9595230572</v>
+        <v>120.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>434.1052</v>
       </c>
       <c r="G42" t="n">
-        <v>106903.9595230572</v>
+        <v>120.45</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>56.2392</v>
       </c>
       <c r="G43" t="n">
-        <v>106903.9595230572</v>
+        <v>120.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,13 +1965,13 @@
         <v>9200</v>
       </c>
       <c r="G44" t="n">
-        <v>116103.9595230572</v>
+        <v>120.55</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,13 +2001,13 @@
         <v>80.9091</v>
       </c>
       <c r="G45" t="n">
-        <v>116023.0504230572</v>
+        <v>120.55</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,13 +2037,13 @@
         <v>10217.5997</v>
       </c>
       <c r="G46" t="n">
-        <v>126240.6501230572</v>
+        <v>120.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>8269.441199999999</v>
       </c>
       <c r="G47" t="n">
-        <v>126240.6501230572</v>
+        <v>120.85</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>25386.4262</v>
       </c>
       <c r="G48" t="n">
-        <v>126240.6501230572</v>
+        <v>121.05</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>331.837</v>
       </c>
       <c r="G49" t="n">
-        <v>125908.8131230572</v>
+        <v>121.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>2.795</v>
       </c>
       <c r="G50" t="n">
-        <v>125911.6081230572</v>
+        <v>121.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>8029.8488</v>
       </c>
       <c r="G51" t="n">
-        <v>117881.7593230572</v>
+        <v>121.25</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>25322.9602</v>
       </c>
       <c r="G52" t="n">
-        <v>92558.79912305716</v>
+        <v>121.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>15610.6509</v>
       </c>
       <c r="G53" t="n">
-        <v>92558.79912305716</v>
+        <v>121.15</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,13 +2325,13 @@
         <v>9890.384099999999</v>
       </c>
       <c r="G54" t="n">
-        <v>92558.79912305716</v>
+        <v>121.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,13 +2361,13 @@
         <v>965.9058</v>
       </c>
       <c r="G55" t="n">
-        <v>92558.79912305716</v>
+        <v>121</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,13 +2397,13 @@
         <v>2978</v>
       </c>
       <c r="G56" t="n">
-        <v>92558.79912305716</v>
+        <v>120.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,13 +2433,13 @@
         <v>8870.570100000001</v>
       </c>
       <c r="G57" t="n">
-        <v>92558.79912305716</v>
+        <v>120.95</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,13 +2469,13 @@
         <v>6850</v>
       </c>
       <c r="G58" t="n">
-        <v>92558.79912305716</v>
+        <v>120.95</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>9700.761</v>
       </c>
       <c r="G59" t="n">
-        <v>102259.5601230572</v>
+        <v>120.95</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,13 +2541,13 @@
         <v>331.236</v>
       </c>
       <c r="G60" t="n">
-        <v>101928.3241230572</v>
+        <v>120.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,13 +2577,13 @@
         <v>1200</v>
       </c>
       <c r="G61" t="n">
-        <v>103128.3241230572</v>
+        <v>120.85</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,13 +2613,13 @@
         <v>600</v>
       </c>
       <c r="G62" t="n">
-        <v>103128.3241230572</v>
+        <v>120.85</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,13 +2649,13 @@
         <v>118.5083</v>
       </c>
       <c r="G63" t="n">
-        <v>103009.8158230572</v>
+        <v>120.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,13 +2685,13 @@
         <v>680</v>
       </c>
       <c r="G64" t="n">
-        <v>102329.8158230572</v>
+        <v>120.65</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>8042</v>
       </c>
       <c r="G65" t="n">
-        <v>102329.8158230572</v>
+        <v>120.55</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>1950</v>
       </c>
       <c r="G66" t="n">
-        <v>102329.8158230572</v>
+        <v>120.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>1932</v>
       </c>
       <c r="G67" t="n">
-        <v>102329.8158230572</v>
+        <v>120.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>1949</v>
       </c>
       <c r="G68" t="n">
-        <v>102329.8158230572</v>
+        <v>120.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2865,7 @@
         <v>9782.753699999999</v>
       </c>
       <c r="G69" t="n">
-        <v>102329.8158230572</v>
+        <v>120</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,7 +2901,7 @@
         <v>4148.0908</v>
       </c>
       <c r="G70" t="n">
-        <v>106477.9066230572</v>
+        <v>119.85</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2937,7 @@
         <v>2840</v>
       </c>
       <c r="G71" t="n">
-        <v>103637.9066230572</v>
+        <v>119.75</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,7 +2973,7 @@
         <v>10400.6609</v>
       </c>
       <c r="G72" t="n">
-        <v>103637.9066230572</v>
+        <v>119.75</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2933,7 +3009,7 @@
         <v>3045</v>
       </c>
       <c r="G73" t="n">
-        <v>106682.9066230572</v>
+        <v>119.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2968,7 +3045,7 @@
         <v>3703</v>
       </c>
       <c r="G74" t="n">
-        <v>102979.9066230572</v>
+        <v>119.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3003,7 +3081,7 @@
         <v>5080.5126</v>
       </c>
       <c r="G75" t="n">
-        <v>102979.9066230572</v>
+        <v>119.55</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,7 +3117,7 @@
         <v>6797</v>
       </c>
       <c r="G76" t="n">
-        <v>102979.9066230572</v>
+        <v>119.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3073,7 +3153,7 @@
         <v>10541.9998</v>
       </c>
       <c r="G77" t="n">
-        <v>102979.9066230572</v>
+        <v>119.45</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3108,7 +3189,7 @@
         <v>26235.8442</v>
       </c>
       <c r="G78" t="n">
-        <v>102979.9066230572</v>
+        <v>119.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,7 +3225,7 @@
         <v>5000</v>
       </c>
       <c r="G79" t="n">
-        <v>102979.9066230572</v>
+        <v>119.35</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3178,7 +3261,7 @@
         <v>8025.6609</v>
       </c>
       <c r="G80" t="n">
-        <v>111005.5675230572</v>
+        <v>119.35</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,7 +3297,7 @@
         <v>5205</v>
       </c>
       <c r="G81" t="n">
-        <v>105800.5675230572</v>
+        <v>119.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3248,7 +3333,7 @@
         <v>8306</v>
       </c>
       <c r="G82" t="n">
-        <v>114106.5675230572</v>
+        <v>119.25</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3283,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>114107.5675230572</v>
+        <v>119.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3318,13 +3405,13 @@
         <v>7279</v>
       </c>
       <c r="G84" t="n">
-        <v>106828.5675230572</v>
+        <v>119.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,7 +3441,7 @@
         <v>1516</v>
       </c>
       <c r="G85" t="n">
-        <v>106828.5675230572</v>
+        <v>119.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3388,7 +3477,7 @@
         <v>7069.7403</v>
       </c>
       <c r="G86" t="n">
-        <v>113898.3078230572</v>
+        <v>119.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3423,7 +3513,7 @@
         <v>1645.22</v>
       </c>
       <c r="G87" t="n">
-        <v>112253.0878230572</v>
+        <v>119.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3458,7 +3549,7 @@
         <v>1.0084</v>
       </c>
       <c r="G88" t="n">
-        <v>112253.0878230572</v>
+        <v>119.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3493,7 +3585,7 @@
         <v>5818</v>
       </c>
       <c r="G89" t="n">
-        <v>106435.0878230572</v>
+        <v>119.25</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3528,7 +3621,7 @@
         <v>498</v>
       </c>
       <c r="G90" t="n">
-        <v>106435.0878230572</v>
+        <v>119.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3563,7 +3657,7 @@
         <v>3992</v>
       </c>
       <c r="G91" t="n">
-        <v>106435.0878230572</v>
+        <v>119.15</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3598,7 +3693,7 @@
         <v>10549.1423</v>
       </c>
       <c r="G92" t="n">
-        <v>106435.0878230572</v>
+        <v>119.05</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3616,6 +3711,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3637,7 +3733,7 @@
         <v>502</v>
       </c>
       <c r="G93" t="n">
-        <v>105933.0878230572</v>
+        <v>118.95</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3659,6 +3755,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3680,7 +3777,7 @@
         <v>3447.2455</v>
       </c>
       <c r="G94" t="n">
-        <v>109380.3333230572</v>
+        <v>118.95</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,6 +3797,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3721,7 +3819,7 @@
         <v>4309</v>
       </c>
       <c r="G95" t="n">
-        <v>105071.3333230572</v>
+        <v>118.85</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,6 +3833,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3756,7 +3855,7 @@
         <v>599.3935</v>
       </c>
       <c r="G96" t="n">
-        <v>105670.7268230572</v>
+        <v>118.85</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,6 +3869,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3791,7 +3891,7 @@
         <v>23680.4873</v>
       </c>
       <c r="G97" t="n">
-        <v>105670.7268230572</v>
+        <v>118.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,6 +3905,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3826,7 +3927,7 @@
         <v>4807</v>
       </c>
       <c r="G98" t="n">
-        <v>100863.7268230572</v>
+        <v>118.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,6 +3941,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3861,7 +3963,7 @@
         <v>23621.286</v>
       </c>
       <c r="G99" t="n">
-        <v>100863.7268230572</v>
+        <v>118.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,6 +3977,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3896,7 +3999,7 @@
         <v>5000</v>
       </c>
       <c r="G100" t="n">
-        <v>105863.7268230572</v>
+        <v>118.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,6 +4013,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3931,7 +4035,7 @@
         <v>7426</v>
       </c>
       <c r="G101" t="n">
-        <v>113289.7268230572</v>
+        <v>118.45</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,6 +4049,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3966,7 +4071,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>113189.8768230572</v>
+        <v>118.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,6 +4085,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4001,7 +4107,7 @@
         <v>3007.9872</v>
       </c>
       <c r="G103" t="n">
-        <v>116197.8640230572</v>
+        <v>118.15</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,6 +4121,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4036,7 +4143,7 @@
         <v>14555.6403</v>
       </c>
       <c r="G104" t="n">
-        <v>116197.8640230572</v>
+        <v>118.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,6 +4157,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4071,7 +4179,7 @@
         <v>8745.234899999999</v>
       </c>
       <c r="G105" t="n">
-        <v>107452.6291230572</v>
+        <v>118</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,6 +4193,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4106,7 +4215,7 @@
         <v>470.4266</v>
       </c>
       <c r="G106" t="n">
-        <v>107452.6291230572</v>
+        <v>117.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,6 +4229,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4141,7 +4251,7 @@
         <v>280.9258</v>
       </c>
       <c r="G107" t="n">
-        <v>107452.6291230572</v>
+        <v>117.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,6 +4265,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4176,7 +4287,7 @@
         <v>168</v>
       </c>
       <c r="G108" t="n">
-        <v>107620.6291230572</v>
+        <v>117.75</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,6 +4301,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4211,7 +4323,7 @@
         <v>2891</v>
       </c>
       <c r="G109" t="n">
-        <v>104729.6291230572</v>
+        <v>117.65</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,6 +4337,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4246,7 +4359,7 @@
         <v>1592</v>
       </c>
       <c r="G110" t="n">
-        <v>104729.6291230572</v>
+        <v>117.55</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,6 +4373,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4281,7 +4395,7 @@
         <v>1503</v>
       </c>
       <c r="G111" t="n">
-        <v>104729.6291230572</v>
+        <v>117.45</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4299,6 +4413,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4320,7 +4435,7 @@
         <v>3487</v>
       </c>
       <c r="G112" t="n">
-        <v>104729.6291230572</v>
+        <v>117.35</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4342,6 +4457,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4363,7 +4479,7 @@
         <v>1834.6413</v>
       </c>
       <c r="G113" t="n">
-        <v>104729.6291230572</v>
+        <v>117.3</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4385,6 +4501,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4406,7 +4523,7 @@
         <v>3741.2271</v>
       </c>
       <c r="G114" t="n">
-        <v>104729.6291230572</v>
+        <v>117.15</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4420,6 +4537,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4441,7 +4559,7 @@
         <v>2557.7279</v>
       </c>
       <c r="G115" t="n">
-        <v>104729.6291230572</v>
+        <v>117.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4455,6 +4573,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4476,7 +4595,7 @@
         <v>306.7918</v>
       </c>
       <c r="G116" t="n">
-        <v>104729.6291230572</v>
+        <v>116.95</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4490,6 +4609,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4511,7 +4631,7 @@
         <v>9614.661</v>
       </c>
       <c r="G117" t="n">
-        <v>114344.2901230572</v>
+        <v>116.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4525,6 +4645,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4546,7 +4667,7 @@
         <v>14300</v>
       </c>
       <c r="G118" t="n">
-        <v>114344.2901230572</v>
+        <v>116.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4560,6 +4681,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4581,7 +4703,7 @@
         <v>1851.6168</v>
       </c>
       <c r="G119" t="n">
-        <v>112492.6733230572</v>
+        <v>116.75</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4595,6 +4717,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4616,7 +4739,7 @@
         <v>1009.0376</v>
       </c>
       <c r="G120" t="n">
-        <v>112492.6733230572</v>
+        <v>116.65</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4630,6 +4753,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4651,7 +4775,7 @@
         <v>1677.0376</v>
       </c>
       <c r="G121" t="n">
-        <v>112492.6733230572</v>
+        <v>116.55</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4665,6 +4789,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4686,7 +4811,7 @@
         <v>288.0277</v>
       </c>
       <c r="G122" t="n">
-        <v>112492.6733230572</v>
+        <v>116.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4700,6 +4825,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4721,7 +4847,7 @@
         <v>4773</v>
       </c>
       <c r="G123" t="n">
-        <v>107719.6733230572</v>
+        <v>116.35</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4735,6 +4861,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4756,7 +4883,7 @@
         <v>3003</v>
       </c>
       <c r="G124" t="n">
-        <v>110722.6733230572</v>
+        <v>116.25</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4770,6 +4897,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4791,7 +4919,7 @@
         <v>1100</v>
       </c>
       <c r="G125" t="n">
-        <v>110722.6733230572</v>
+        <v>116.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4805,6 +4933,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4826,7 +4955,7 @@
         <v>621</v>
       </c>
       <c r="G126" t="n">
-        <v>110101.6733230572</v>
+        <v>116.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4840,6 +4969,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4861,7 +4991,7 @@
         <v>2720</v>
       </c>
       <c r="G127" t="n">
-        <v>110101.6733230572</v>
+        <v>116</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4875,6 +5005,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest THETA.xlsx
+++ b/BackTest/2019-10-29 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>120.9</v>
+        <v>81929.66460000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E3" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F3" t="n">
-        <v>5310.9338</v>
+        <v>75.7161</v>
       </c>
       <c r="G3" t="n">
-        <v>120.95</v>
+        <v>81853.94850000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4" t="n">
-        <v>3130.0496</v>
+        <v>11312.5269</v>
       </c>
       <c r="G4" t="n">
-        <v>121</v>
+        <v>93166.47540000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>116</v>
+      </c>
+      <c r="K4" t="n">
+        <v>116</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,32 +550,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F5" t="n">
-        <v>29.9322</v>
+        <v>293</v>
       </c>
       <c r="G5" t="n">
-        <v>121</v>
+        <v>93166.47540000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>116</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +592,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" t="n">
         <v>119</v>
       </c>
       <c r="D6" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" t="n">
-        <v>7821.3809</v>
+        <v>350.2441949579832</v>
       </c>
       <c r="G6" t="n">
-        <v>121</v>
+        <v>93516.71959495799</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +616,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>116</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +634,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>600.9098</v>
       </c>
       <c r="G7" t="n">
-        <v>120.95</v>
+        <v>93516.71959495799</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +670,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" t="n">
-        <v>5295.0916</v>
+        <v>3406.9268</v>
       </c>
       <c r="G8" t="n">
-        <v>120.9</v>
+        <v>93516.71959495799</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +706,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" t="n">
-        <v>618.909</v>
+        <v>23064.4559</v>
       </c>
       <c r="G9" t="n">
-        <v>120.8</v>
+        <v>93516.71959495799</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +742,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" t="n">
-        <v>88.33880000000001</v>
+        <v>651</v>
       </c>
       <c r="G10" t="n">
-        <v>120.85</v>
+        <v>93516.71959495799</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
         <v>120</v>
@@ -771,19 +787,19 @@
         <v>120</v>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" t="n">
-        <v>1899.6072</v>
+        <v>13039</v>
       </c>
       <c r="G11" t="n">
-        <v>120.85</v>
+        <v>106555.719594958</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +814,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" t="n">
-        <v>25026.628</v>
+        <v>3451.8645</v>
       </c>
       <c r="G12" t="n">
-        <v>120.9</v>
+        <v>106555.719594958</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -846,16 +862,16 @@
         <v>120</v>
       </c>
       <c r="F13" t="n">
-        <v>4900</v>
+        <v>9340.431200000001</v>
       </c>
       <c r="G13" t="n">
-        <v>120.9</v>
+        <v>106555.719594958</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -882,16 +898,16 @@
         <v>120</v>
       </c>
       <c r="F14" t="n">
-        <v>3116.1666</v>
+        <v>8200</v>
       </c>
       <c r="G14" t="n">
-        <v>120.85</v>
+        <v>106555.719594958</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -918,16 +934,16 @@
         <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>4066.4384</v>
+        <v>2858.102</v>
       </c>
       <c r="G15" t="n">
-        <v>120.75</v>
+        <v>106555.719594958</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +958,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E16" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F16" t="n">
-        <v>24964.0614</v>
+        <v>14482.64462809917</v>
       </c>
       <c r="G16" t="n">
-        <v>120.6</v>
+        <v>121038.3642230572</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +994,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C17" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E17" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F17" t="n">
-        <v>1628.6242</v>
+        <v>1918.0081</v>
       </c>
       <c r="G17" t="n">
-        <v>120.45</v>
+        <v>122956.3723230572</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1030,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C18" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E18" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>10049.4214</v>
       </c>
       <c r="G18" t="n">
-        <v>120.35</v>
+        <v>112906.9509230572</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" t="n">
-        <v>56.3801</v>
+        <v>600</v>
       </c>
       <c r="G19" t="n">
-        <v>120.3</v>
+        <v>112306.9509230572</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1098,16 +1114,16 @@
         <v>120</v>
       </c>
       <c r="F20" t="n">
-        <v>229.9216</v>
+        <v>1913.2131</v>
       </c>
       <c r="G20" t="n">
-        <v>120.25</v>
+        <v>112306.9509230572</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1134,10 +1150,10 @@
         <v>120</v>
       </c>
       <c r="F21" t="n">
-        <v>8000</v>
+        <v>2515.6083</v>
       </c>
       <c r="G21" t="n">
-        <v>120.2</v>
+        <v>112306.9509230572</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1167,13 +1183,13 @@
         <v>120</v>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" t="n">
-        <v>12.8583</v>
+        <v>2895.1568</v>
       </c>
       <c r="G22" t="n">
-        <v>120.1</v>
+        <v>112306.9509230572</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" t="n">
         <v>121</v>
@@ -1203,13 +1219,13 @@
         <v>121</v>
       </c>
       <c r="E23" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F23" t="n">
-        <v>10600</v>
+        <v>650</v>
       </c>
       <c r="G23" t="n">
-        <v>120.05</v>
+        <v>112956.9509230572</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1246,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" t="n">
-        <v>623</v>
+        <v>1549.0236</v>
       </c>
       <c r="G24" t="n">
-        <v>120.05</v>
+        <v>114505.9745230572</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1282,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F25" t="n">
-        <v>40023</v>
+        <v>1041.7336</v>
       </c>
       <c r="G25" t="n">
-        <v>120.1</v>
+        <v>114505.9745230572</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,22 +1318,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C26" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D26" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E26" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F26" t="n">
-        <v>3666.1007</v>
+        <v>1537.5491</v>
       </c>
       <c r="G26" t="n">
-        <v>120.05</v>
+        <v>114505.9745230572</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1354,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C27" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D27" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E27" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>4600</v>
       </c>
       <c r="G27" t="n">
-        <v>120</v>
+        <v>114505.9745230572</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1390,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C28" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D28" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E28" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F28" t="n">
-        <v>1673.4544</v>
+        <v>28645.901</v>
       </c>
       <c r="G28" t="n">
-        <v>119.9</v>
+        <v>114505.9745230572</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1426,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D29" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" t="n">
-        <v>196.7555</v>
+        <v>5600</v>
       </c>
       <c r="G29" t="n">
-        <v>119.9</v>
+        <v>108905.9745230572</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1462,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C30" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D30" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E30" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" t="n">
-        <v>47902.0893</v>
+        <v>1324.3429</v>
       </c>
       <c r="G30" t="n">
-        <v>119.8</v>
+        <v>108905.9745230572</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1498,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E31" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>119.85</v>
+        <v>108906.9745230572</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1530,16 +1546,16 @@
         <v>121</v>
       </c>
       <c r="F32" t="n">
-        <v>10683.0407</v>
+        <v>5310.9338</v>
       </c>
       <c r="G32" t="n">
-        <v>119.85</v>
+        <v>103596.0407230572</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1557,19 +1573,19 @@
         <v>121</v>
       </c>
       <c r="C33" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" t="n">
         <v>121</v>
       </c>
       <c r="E33" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" t="n">
-        <v>651</v>
+        <v>3130.0496</v>
       </c>
       <c r="G33" t="n">
-        <v>119.9</v>
+        <v>100465.9911230572</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1606,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" t="n">
-        <v>7235.6803</v>
+        <v>29.9322</v>
       </c>
       <c r="G34" t="n">
-        <v>120</v>
+        <v>100465.9911230572</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1642,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D35" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F35" t="n">
-        <v>7834.0163</v>
+        <v>7821.3809</v>
       </c>
       <c r="G35" t="n">
-        <v>120.1</v>
+        <v>92644.61022305716</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1678,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>119.3975</v>
+        <v>250</v>
       </c>
       <c r="G36" t="n">
-        <v>120.25</v>
+        <v>92894.61022305716</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1710,10 +1726,10 @@
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>5790.2484</v>
+        <v>5295.0916</v>
       </c>
       <c r="G37" t="n">
-        <v>120.3</v>
+        <v>92894.61022305716</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1737,25 +1753,25 @@
         <v>120</v>
       </c>
       <c r="C38" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" t="n">
         <v>120</v>
       </c>
       <c r="F38" t="n">
-        <v>3700</v>
+        <v>618.909</v>
       </c>
       <c r="G38" t="n">
-        <v>120.35</v>
+        <v>93513.51922305716</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1786,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F39" t="n">
-        <v>2630.7833</v>
+        <v>88.33880000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>120.3</v>
+        <v>93513.51922305716</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,28 +1822,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F40" t="n">
-        <v>12797.3901</v>
+        <v>1899.6072</v>
       </c>
       <c r="G40" t="n">
-        <v>120.35</v>
+        <v>91613.91202305716</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1854,10 +1870,10 @@
         <v>121</v>
       </c>
       <c r="F41" t="n">
-        <v>9900.641600000001</v>
+        <v>25026.628</v>
       </c>
       <c r="G41" t="n">
-        <v>120.4</v>
+        <v>116640.5400230572</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,28 +1894,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" t="n">
-        <v>434.1052</v>
+        <v>4900</v>
       </c>
       <c r="G42" t="n">
-        <v>120.45</v>
+        <v>111740.5400230572</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1930,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" t="n">
-        <v>56.2392</v>
+        <v>3116.1666</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5</v>
+        <v>111740.5400230572</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +1966,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C44" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E44" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F44" t="n">
-        <v>9200</v>
+        <v>4066.4384</v>
       </c>
       <c r="G44" t="n">
-        <v>120.55</v>
+        <v>111740.5400230572</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2002,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F45" t="n">
-        <v>80.9091</v>
+        <v>24964.0614</v>
       </c>
       <c r="G45" t="n">
-        <v>120.55</v>
+        <v>86776.47862305716</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2038,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D46" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E46" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F46" t="n">
-        <v>10217.5997</v>
+        <v>1628.6242</v>
       </c>
       <c r="G46" t="n">
-        <v>120.7</v>
+        <v>86776.47862305716</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,28 +2074,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C47" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E47" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47" t="n">
-        <v>8269.441199999999</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>120.85</v>
+        <v>86776.47862305716</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2110,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" t="n">
-        <v>25386.4262</v>
+        <v>56.3801</v>
       </c>
       <c r="G48" t="n">
-        <v>121.05</v>
+        <v>86832.85872305716</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2146,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>331.837</v>
+        <v>229.9216</v>
       </c>
       <c r="G49" t="n">
-        <v>121.1</v>
+        <v>86602.93712305716</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2182,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C50" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E50" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F50" t="n">
-        <v>2.795</v>
+        <v>8000</v>
       </c>
       <c r="G50" t="n">
-        <v>121.25</v>
+        <v>86602.93712305716</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2218,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E51" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51" t="n">
-        <v>8029.8488</v>
+        <v>12.8583</v>
       </c>
       <c r="G51" t="n">
-        <v>121.25</v>
+        <v>86602.93712305716</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2241,25 +2257,25 @@
         <v>120</v>
       </c>
       <c r="C52" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" t="n">
         <v>120</v>
       </c>
       <c r="F52" t="n">
-        <v>25322.9602</v>
+        <v>10600</v>
       </c>
       <c r="G52" t="n">
-        <v>121.2</v>
+        <v>97202.93712305716</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2290,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D53" t="n">
         <v>121</v>
       </c>
       <c r="E53" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" t="n">
-        <v>15610.6509</v>
+        <v>623</v>
       </c>
       <c r="G53" t="n">
-        <v>121.15</v>
+        <v>97202.93712305716</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2313,25 +2329,25 @@
         <v>121</v>
       </c>
       <c r="C54" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" t="n">
         <v>121</v>
       </c>
       <c r="E54" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F54" t="n">
-        <v>9890.384099999999</v>
+        <v>40023</v>
       </c>
       <c r="G54" t="n">
-        <v>121.1</v>
+        <v>97202.93712305716</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2362,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" t="n">
-        <v>965.9058</v>
+        <v>3666.1007</v>
       </c>
       <c r="G55" t="n">
-        <v>121</v>
+        <v>93536.83642305716</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2398,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" t="n">
-        <v>2978</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>120.9</v>
+        <v>93537.83642305716</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2434,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C57" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E57" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F57" t="n">
-        <v>8870.570100000001</v>
+        <v>1673.4544</v>
       </c>
       <c r="G57" t="n">
-        <v>120.95</v>
+        <v>91864.38202305716</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2457,25 +2473,25 @@
         <v>120</v>
       </c>
       <c r="C58" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" t="n">
         <v>120</v>
       </c>
       <c r="E58" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" t="n">
-        <v>6850</v>
+        <v>196.7555</v>
       </c>
       <c r="G58" t="n">
-        <v>120.95</v>
+        <v>92061.13752305716</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,22 +2506,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D59" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E59" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" t="n">
-        <v>9700.761</v>
+        <v>47902.0893</v>
       </c>
       <c r="G59" t="n">
-        <v>120.95</v>
+        <v>92061.13752305716</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,28 +2542,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D60" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E60" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F60" t="n">
-        <v>331.236</v>
+        <v>600</v>
       </c>
       <c r="G60" t="n">
-        <v>120.9</v>
+        <v>92661.13752305716</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,7 +2578,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" t="n">
         <v>121</v>
@@ -2571,19 +2587,19 @@
         <v>121</v>
       </c>
       <c r="E61" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F61" t="n">
-        <v>1200</v>
+        <v>10683.0407</v>
       </c>
       <c r="G61" t="n">
-        <v>120.85</v>
+        <v>92661.13752305716</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2610,16 +2626,16 @@
         <v>121</v>
       </c>
       <c r="F62" t="n">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="G62" t="n">
-        <v>120.85</v>
+        <v>92661.13752305716</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,28 +2650,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C63" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D63" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E63" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F63" t="n">
-        <v>118.5083</v>
+        <v>7235.6803</v>
       </c>
       <c r="G63" t="n">
-        <v>120.8</v>
+        <v>99896.81782305715</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +2686,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C64" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D64" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E64" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F64" t="n">
-        <v>680</v>
+        <v>7834.0163</v>
       </c>
       <c r="G64" t="n">
-        <v>120.65</v>
+        <v>99896.81782305715</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,22 +2722,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C65" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D65" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E65" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F65" t="n">
-        <v>8042</v>
+        <v>119.3975</v>
       </c>
       <c r="G65" t="n">
-        <v>120.55</v>
+        <v>99896.81782305715</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2758,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D66" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E66" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F66" t="n">
-        <v>1950</v>
+        <v>5790.2484</v>
       </c>
       <c r="G66" t="n">
-        <v>120.4</v>
+        <v>94106.56942305715</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D67" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E67" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F67" t="n">
-        <v>1932</v>
+        <v>3700</v>
       </c>
       <c r="G67" t="n">
-        <v>120.25</v>
+        <v>94106.56942305715</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2830,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D68" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E68" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F68" t="n">
-        <v>1949</v>
+        <v>2630.7833</v>
       </c>
       <c r="G68" t="n">
-        <v>120.1</v>
+        <v>94106.56942305715</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2866,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C69" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D69" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F69" t="n">
-        <v>9782.753699999999</v>
+        <v>12797.3901</v>
       </c>
       <c r="G69" t="n">
-        <v>120</v>
+        <v>106903.9595230572</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2902,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C70" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D70" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E70" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F70" t="n">
-        <v>4148.0908</v>
+        <v>9900.641600000001</v>
       </c>
       <c r="G70" t="n">
-        <v>119.85</v>
+        <v>106903.9595230572</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2938,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C71" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D71" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F71" t="n">
-        <v>2840</v>
+        <v>434.1052</v>
       </c>
       <c r="G71" t="n">
-        <v>119.75</v>
+        <v>106903.9595230572</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2974,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C72" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D72" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E72" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F72" t="n">
-        <v>10400.6609</v>
+        <v>56.2392</v>
       </c>
       <c r="G72" t="n">
-        <v>119.75</v>
+        <v>106903.9595230572</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C73" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D73" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E73" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F73" t="n">
-        <v>3045</v>
+        <v>9200</v>
       </c>
       <c r="G73" t="n">
-        <v>119.7</v>
+        <v>116103.9595230572</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3046,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C74" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D74" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F74" t="n">
-        <v>3703</v>
+        <v>80.9091</v>
       </c>
       <c r="G74" t="n">
-        <v>119.6</v>
+        <v>116023.0504230572</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C75" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D75" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E75" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F75" t="n">
-        <v>5080.5126</v>
+        <v>10217.5997</v>
       </c>
       <c r="G75" t="n">
-        <v>119.55</v>
+        <v>126240.6501230572</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3118,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C76" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D76" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E76" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F76" t="n">
-        <v>6797</v>
+        <v>8269.441199999999</v>
       </c>
       <c r="G76" t="n">
-        <v>119.5</v>
+        <v>126240.6501230572</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C77" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D77" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F77" t="n">
-        <v>10541.9998</v>
+        <v>25386.4262</v>
       </c>
       <c r="G77" t="n">
-        <v>119.45</v>
+        <v>126240.6501230572</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3190,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C78" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D78" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F78" t="n">
-        <v>26235.8442</v>
+        <v>331.837</v>
       </c>
       <c r="G78" t="n">
-        <v>119.4</v>
+        <v>125908.8131230572</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3226,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C79" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D79" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E79" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>2.795</v>
       </c>
       <c r="G79" t="n">
-        <v>119.35</v>
+        <v>125911.6081230572</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3262,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C80" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D80" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E80" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F80" t="n">
-        <v>8025.6609</v>
+        <v>8029.8488</v>
       </c>
       <c r="G80" t="n">
-        <v>119.35</v>
+        <v>117881.7593230572</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3298,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C81" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D81" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E81" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F81" t="n">
-        <v>5205</v>
+        <v>25322.9602</v>
       </c>
       <c r="G81" t="n">
-        <v>119.3</v>
+        <v>92558.79912305716</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3324,16 +3340,16 @@
         <v>120</v>
       </c>
       <c r="D82" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E82" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F82" t="n">
-        <v>8306</v>
+        <v>15610.6509</v>
       </c>
       <c r="G82" t="n">
-        <v>119.25</v>
+        <v>92558.79912305716</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3357,19 +3373,19 @@
         <v>121</v>
       </c>
       <c r="C83" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" t="n">
         <v>121</v>
       </c>
       <c r="E83" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>9890.384099999999</v>
       </c>
       <c r="G83" t="n">
-        <v>119.3</v>
+        <v>92558.79912305716</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,28 +3406,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D84" t="n">
         <v>120</v>
       </c>
       <c r="E84" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" t="n">
-        <v>7279</v>
+        <v>965.9058</v>
       </c>
       <c r="G84" t="n">
-        <v>119.3</v>
+        <v>92558.79912305716</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,22 +3442,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D85" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E85" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F85" t="n">
-        <v>1516</v>
+        <v>2978</v>
       </c>
       <c r="G85" t="n">
-        <v>119.3</v>
+        <v>92558.79912305716</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3478,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C86" t="n">
         <v>120</v>
       </c>
       <c r="D86" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E86" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F86" t="n">
-        <v>7069.7403</v>
+        <v>8870.570100000001</v>
       </c>
       <c r="G86" t="n">
-        <v>119.3</v>
+        <v>92558.79912305716</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3514,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C87" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D87" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E87" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F87" t="n">
-        <v>1645.22</v>
+        <v>6850</v>
       </c>
       <c r="G87" t="n">
-        <v>119.3</v>
+        <v>92558.79912305716</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3550,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D88" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F88" t="n">
-        <v>1.0084</v>
+        <v>9700.761</v>
       </c>
       <c r="G88" t="n">
-        <v>119.3</v>
+        <v>102259.5601230572</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3586,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C89" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D89" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F89" t="n">
-        <v>5818</v>
+        <v>331.236</v>
       </c>
       <c r="G89" t="n">
-        <v>119.25</v>
+        <v>101928.3241230572</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3622,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D90" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E90" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F90" t="n">
-        <v>498</v>
+        <v>1200</v>
       </c>
       <c r="G90" t="n">
-        <v>119.2</v>
+        <v>103128.3241230572</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3658,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C91" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D91" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E91" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F91" t="n">
-        <v>3992</v>
+        <v>600</v>
       </c>
       <c r="G91" t="n">
-        <v>119.15</v>
+        <v>103128.3241230572</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,35 +3694,31 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C92" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D92" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F92" t="n">
-        <v>10549.1423</v>
+        <v>118.5083</v>
       </c>
       <c r="G92" t="n">
-        <v>119.05</v>
+        <v>103009.8158230572</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>118</v>
-      </c>
-      <c r="K92" t="n">
-        <v>118</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3718,40 +3730,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F93" t="n">
-        <v>502</v>
+        <v>680</v>
       </c>
       <c r="G93" t="n">
-        <v>118.95</v>
+        <v>102329.8158230572</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>118</v>
-      </c>
-      <c r="K93" t="n">
-        <v>118</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3774,10 +3778,10 @@
         <v>119</v>
       </c>
       <c r="F94" t="n">
-        <v>3447.2455</v>
+        <v>8042</v>
       </c>
       <c r="G94" t="n">
-        <v>118.95</v>
+        <v>102329.8158230572</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,14 +3790,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>118</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +3802,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C95" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D95" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F95" t="n">
-        <v>4309</v>
+        <v>1950</v>
       </c>
       <c r="G95" t="n">
-        <v>118.85</v>
+        <v>102329.8158230572</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3852,10 +3850,10 @@
         <v>119</v>
       </c>
       <c r="F96" t="n">
-        <v>599.3935</v>
+        <v>1932</v>
       </c>
       <c r="G96" t="n">
-        <v>118.85</v>
+        <v>102329.8158230572</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3888,10 +3886,10 @@
         <v>119</v>
       </c>
       <c r="F97" t="n">
-        <v>23680.4873</v>
+        <v>1949</v>
       </c>
       <c r="G97" t="n">
-        <v>118.8</v>
+        <v>102329.8158230572</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3912,22 +3910,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C98" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D98" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F98" t="n">
-        <v>4807</v>
+        <v>9782.753699999999</v>
       </c>
       <c r="G98" t="n">
-        <v>118.7</v>
+        <v>102329.8158230572</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3948,22 +3946,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C99" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D99" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E99" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F99" t="n">
-        <v>23621.286</v>
+        <v>4148.0908</v>
       </c>
       <c r="G99" t="n">
-        <v>118.6</v>
+        <v>106477.9066230572</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3984,22 +3982,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C100" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D100" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E100" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F100" t="n">
-        <v>5000</v>
+        <v>2840</v>
       </c>
       <c r="G100" t="n">
-        <v>118.5</v>
+        <v>103637.9066230572</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4020,22 +4018,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C101" t="n">
         <v>119</v>
       </c>
       <c r="D101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F101" t="n">
-        <v>7426</v>
+        <v>10400.6609</v>
       </c>
       <c r="G101" t="n">
-        <v>118.45</v>
+        <v>103637.9066230572</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4056,22 +4054,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C102" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D102" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E102" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F102" t="n">
-        <v>99.84999999999999</v>
+        <v>3045</v>
       </c>
       <c r="G102" t="n">
-        <v>118.3</v>
+        <v>106682.9066230572</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4092,22 +4090,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F103" t="n">
-        <v>3007.9872</v>
+        <v>3703</v>
       </c>
       <c r="G103" t="n">
-        <v>118.15</v>
+        <v>102979.9066230572</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4128,22 +4126,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F104" t="n">
-        <v>14555.6403</v>
+        <v>5080.5126</v>
       </c>
       <c r="G104" t="n">
-        <v>118.1</v>
+        <v>102979.9066230572</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4164,22 +4162,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C105" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D105" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E105" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F105" t="n">
-        <v>8745.234899999999</v>
+        <v>6797</v>
       </c>
       <c r="G105" t="n">
-        <v>118</v>
+        <v>102979.9066230572</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4200,22 +4198,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C106" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D106" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E106" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F106" t="n">
-        <v>470.4266</v>
+        <v>10541.9998</v>
       </c>
       <c r="G106" t="n">
-        <v>117.9</v>
+        <v>102979.9066230572</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4236,22 +4234,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C107" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D107" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E107" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F107" t="n">
-        <v>280.9258</v>
+        <v>26235.8442</v>
       </c>
       <c r="G107" t="n">
-        <v>117.8</v>
+        <v>102979.9066230572</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4272,22 +4270,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C108" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D108" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E108" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F108" t="n">
-        <v>168</v>
+        <v>5000</v>
       </c>
       <c r="G108" t="n">
-        <v>117.75</v>
+        <v>102979.9066230572</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4308,22 +4306,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C109" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D109" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E109" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F109" t="n">
-        <v>2891</v>
+        <v>8025.6609</v>
       </c>
       <c r="G109" t="n">
-        <v>117.65</v>
+        <v>111005.5675230572</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4344,22 +4342,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C110" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D110" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E110" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F110" t="n">
-        <v>1592</v>
+        <v>5205</v>
       </c>
       <c r="G110" t="n">
-        <v>117.55</v>
+        <v>105800.5675230572</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4380,35 +4378,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C111" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D111" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E111" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F111" t="n">
-        <v>1503</v>
+        <v>8306</v>
       </c>
       <c r="G111" t="n">
-        <v>117.45</v>
+        <v>114106.5675230572</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>116</v>
-      </c>
-      <c r="K111" t="n">
-        <v>116</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
@@ -4420,40 +4414,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C112" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D112" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E112" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F112" t="n">
-        <v>3487</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>117.35</v>
+        <v>114107.5675230572</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>116</v>
-      </c>
-      <c r="K112" t="n">
-        <v>116</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4464,40 +4450,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C113" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D113" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E113" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F113" t="n">
-        <v>1834.6413</v>
+        <v>7279</v>
       </c>
       <c r="G113" t="n">
-        <v>117.3</v>
+        <v>106828.5675230572</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>116</v>
-      </c>
-      <c r="K113" t="n">
-        <v>116</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4508,22 +4486,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C114" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D114" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E114" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F114" t="n">
-        <v>3741.2271</v>
+        <v>1516</v>
       </c>
       <c r="G114" t="n">
-        <v>117.15</v>
+        <v>106828.5675230572</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4544,22 +4522,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C115" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D115" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E115" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F115" t="n">
-        <v>2557.7279</v>
+        <v>7069.7403</v>
       </c>
       <c r="G115" t="n">
-        <v>117.1</v>
+        <v>113898.3078230572</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4580,22 +4558,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C116" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D116" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E116" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F116" t="n">
-        <v>306.7918</v>
+        <v>1645.22</v>
       </c>
       <c r="G116" t="n">
-        <v>116.95</v>
+        <v>112253.0878230572</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4616,22 +4594,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C117" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D117" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E117" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F117" t="n">
-        <v>9614.661</v>
+        <v>1.0084</v>
       </c>
       <c r="G117" t="n">
-        <v>116.8</v>
+        <v>112253.0878230572</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4652,22 +4630,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D118" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F118" t="n">
-        <v>14300</v>
+        <v>5818</v>
       </c>
       <c r="G118" t="n">
-        <v>116.8</v>
+        <v>106435.0878230572</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4688,22 +4666,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D119" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F119" t="n">
-        <v>1851.6168</v>
+        <v>498</v>
       </c>
       <c r="G119" t="n">
-        <v>116.75</v>
+        <v>106435.0878230572</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4724,22 +4702,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D120" t="n">
         <v>118</v>
       </c>
       <c r="E120" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F120" t="n">
-        <v>1009.0376</v>
+        <v>3992</v>
       </c>
       <c r="G120" t="n">
-        <v>116.65</v>
+        <v>106435.0878230572</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4760,22 +4738,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F121" t="n">
-        <v>1677.0376</v>
+        <v>10549.1423</v>
       </c>
       <c r="G121" t="n">
-        <v>116.55</v>
+        <v>106435.0878230572</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4796,22 +4774,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C122" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D122" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E122" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F122" t="n">
-        <v>288.0277</v>
+        <v>502</v>
       </c>
       <c r="G122" t="n">
-        <v>116.5</v>
+        <v>105933.0878230572</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4832,22 +4810,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C123" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D123" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E123" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F123" t="n">
-        <v>4773</v>
+        <v>3447.2455</v>
       </c>
       <c r="G123" t="n">
-        <v>116.35</v>
+        <v>109380.3333230572</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4868,22 +4846,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F124" t="n">
-        <v>3003</v>
+        <v>4309</v>
       </c>
       <c r="G124" t="n">
-        <v>116.25</v>
+        <v>105071.3333230572</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4904,22 +4882,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C125" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D125" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E125" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F125" t="n">
-        <v>1100</v>
+        <v>599.3935</v>
       </c>
       <c r="G125" t="n">
-        <v>116.2</v>
+        <v>105670.7268230572</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4940,22 +4918,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C126" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D126" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E126" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F126" t="n">
-        <v>621</v>
+        <v>23680.4873</v>
       </c>
       <c r="G126" t="n">
-        <v>116.1</v>
+        <v>105670.7268230572</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4976,22 +4954,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C127" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D127" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F127" t="n">
-        <v>2720</v>
+        <v>4807</v>
       </c>
       <c r="G127" t="n">
-        <v>116</v>
+        <v>100863.7268230572</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5007,6 +4985,1050 @@
       </c>
       <c r="N127" t="inlineStr"/>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>117</v>
+      </c>
+      <c r="C128" t="n">
+        <v>117</v>
+      </c>
+      <c r="D128" t="n">
+        <v>117</v>
+      </c>
+      <c r="E128" t="n">
+        <v>117</v>
+      </c>
+      <c r="F128" t="n">
+        <v>23621.286</v>
+      </c>
+      <c r="G128" t="n">
+        <v>100863.7268230572</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>118</v>
+      </c>
+      <c r="C129" t="n">
+        <v>118</v>
+      </c>
+      <c r="D129" t="n">
+        <v>118</v>
+      </c>
+      <c r="E129" t="n">
+        <v>118</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>105863.7268230572</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>118</v>
+      </c>
+      <c r="C130" t="n">
+        <v>119</v>
+      </c>
+      <c r="D130" t="n">
+        <v>119</v>
+      </c>
+      <c r="E130" t="n">
+        <v>118</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7426</v>
+      </c>
+      <c r="G130" t="n">
+        <v>113289.7268230572</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>117</v>
+      </c>
+      <c r="C131" t="n">
+        <v>117</v>
+      </c>
+      <c r="D131" t="n">
+        <v>117</v>
+      </c>
+      <c r="E131" t="n">
+        <v>117</v>
+      </c>
+      <c r="F131" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>113189.8768230572</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>118</v>
+      </c>
+      <c r="C132" t="n">
+        <v>118</v>
+      </c>
+      <c r="D132" t="n">
+        <v>118</v>
+      </c>
+      <c r="E132" t="n">
+        <v>118</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3007.9872</v>
+      </c>
+      <c r="G132" t="n">
+        <v>116197.8640230572</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>118</v>
+      </c>
+      <c r="C133" t="n">
+        <v>118</v>
+      </c>
+      <c r="D133" t="n">
+        <v>118</v>
+      </c>
+      <c r="E133" t="n">
+        <v>118</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14555.6403</v>
+      </c>
+      <c r="G133" t="n">
+        <v>116197.8640230572</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>117</v>
+      </c>
+      <c r="C134" t="n">
+        <v>117</v>
+      </c>
+      <c r="D134" t="n">
+        <v>117</v>
+      </c>
+      <c r="E134" t="n">
+        <v>117</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8745.234899999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>107452.6291230572</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>117</v>
+      </c>
+      <c r="C135" t="n">
+        <v>117</v>
+      </c>
+      <c r="D135" t="n">
+        <v>117</v>
+      </c>
+      <c r="E135" t="n">
+        <v>117</v>
+      </c>
+      <c r="F135" t="n">
+        <v>470.4266</v>
+      </c>
+      <c r="G135" t="n">
+        <v>107452.6291230572</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>117</v>
+      </c>
+      <c r="C136" t="n">
+        <v>117</v>
+      </c>
+      <c r="D136" t="n">
+        <v>117</v>
+      </c>
+      <c r="E136" t="n">
+        <v>117</v>
+      </c>
+      <c r="F136" t="n">
+        <v>280.9258</v>
+      </c>
+      <c r="G136" t="n">
+        <v>107452.6291230572</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>118</v>
+      </c>
+      <c r="C137" t="n">
+        <v>118</v>
+      </c>
+      <c r="D137" t="n">
+        <v>118</v>
+      </c>
+      <c r="E137" t="n">
+        <v>118</v>
+      </c>
+      <c r="F137" t="n">
+        <v>168</v>
+      </c>
+      <c r="G137" t="n">
+        <v>107620.6291230572</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>116</v>
+      </c>
+      <c r="C138" t="n">
+        <v>116</v>
+      </c>
+      <c r="D138" t="n">
+        <v>116</v>
+      </c>
+      <c r="E138" t="n">
+        <v>116</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2891</v>
+      </c>
+      <c r="G138" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>116</v>
+      </c>
+      <c r="C139" t="n">
+        <v>116</v>
+      </c>
+      <c r="D139" t="n">
+        <v>116</v>
+      </c>
+      <c r="E139" t="n">
+        <v>116</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1592</v>
+      </c>
+      <c r="G139" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>116</v>
+      </c>
+      <c r="C140" t="n">
+        <v>116</v>
+      </c>
+      <c r="D140" t="n">
+        <v>116</v>
+      </c>
+      <c r="E140" t="n">
+        <v>116</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1503</v>
+      </c>
+      <c r="G140" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>116</v>
+      </c>
+      <c r="C141" t="n">
+        <v>116</v>
+      </c>
+      <c r="D141" t="n">
+        <v>116</v>
+      </c>
+      <c r="E141" t="n">
+        <v>116</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3487</v>
+      </c>
+      <c r="G141" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>116</v>
+      </c>
+      <c r="C142" t="n">
+        <v>116</v>
+      </c>
+      <c r="D142" t="n">
+        <v>116</v>
+      </c>
+      <c r="E142" t="n">
+        <v>116</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1834.6413</v>
+      </c>
+      <c r="G142" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>116</v>
+      </c>
+      <c r="C143" t="n">
+        <v>116</v>
+      </c>
+      <c r="D143" t="n">
+        <v>116</v>
+      </c>
+      <c r="E143" t="n">
+        <v>116</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3741.2271</v>
+      </c>
+      <c r="G143" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>116</v>
+      </c>
+      <c r="C144" t="n">
+        <v>116</v>
+      </c>
+      <c r="D144" t="n">
+        <v>118</v>
+      </c>
+      <c r="E144" t="n">
+        <v>116</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2557.7279</v>
+      </c>
+      <c r="G144" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>116</v>
+      </c>
+      <c r="C145" t="n">
+        <v>116</v>
+      </c>
+      <c r="D145" t="n">
+        <v>116</v>
+      </c>
+      <c r="E145" t="n">
+        <v>116</v>
+      </c>
+      <c r="F145" t="n">
+        <v>306.7918</v>
+      </c>
+      <c r="G145" t="n">
+        <v>104729.6291230572</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>116</v>
+      </c>
+      <c r="C146" t="n">
+        <v>117</v>
+      </c>
+      <c r="D146" t="n">
+        <v>117</v>
+      </c>
+      <c r="E146" t="n">
+        <v>116</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9614.661</v>
+      </c>
+      <c r="G146" t="n">
+        <v>114344.2901230572</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>117</v>
+      </c>
+      <c r="C147" t="n">
+        <v>117</v>
+      </c>
+      <c r="D147" t="n">
+        <v>117</v>
+      </c>
+      <c r="E147" t="n">
+        <v>117</v>
+      </c>
+      <c r="F147" t="n">
+        <v>14300</v>
+      </c>
+      <c r="G147" t="n">
+        <v>114344.2901230572</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>116</v>
+      </c>
+      <c r="C148" t="n">
+        <v>116</v>
+      </c>
+      <c r="D148" t="n">
+        <v>116</v>
+      </c>
+      <c r="E148" t="n">
+        <v>116</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1851.6168</v>
+      </c>
+      <c r="G148" t="n">
+        <v>112492.6733230572</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>116</v>
+      </c>
+      <c r="C149" t="n">
+        <v>116</v>
+      </c>
+      <c r="D149" t="n">
+        <v>118</v>
+      </c>
+      <c r="E149" t="n">
+        <v>116</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1009.0376</v>
+      </c>
+      <c r="G149" t="n">
+        <v>112492.6733230572</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>116</v>
+      </c>
+      <c r="C150" t="n">
+        <v>116</v>
+      </c>
+      <c r="D150" t="n">
+        <v>116</v>
+      </c>
+      <c r="E150" t="n">
+        <v>116</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1677.0376</v>
+      </c>
+      <c r="G150" t="n">
+        <v>112492.6733230572</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>116</v>
+      </c>
+      <c r="C151" t="n">
+        <v>116</v>
+      </c>
+      <c r="D151" t="n">
+        <v>116</v>
+      </c>
+      <c r="E151" t="n">
+        <v>116</v>
+      </c>
+      <c r="F151" t="n">
+        <v>288.0277</v>
+      </c>
+      <c r="G151" t="n">
+        <v>112492.6733230572</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>115</v>
+      </c>
+      <c r="C152" t="n">
+        <v>115</v>
+      </c>
+      <c r="D152" t="n">
+        <v>115</v>
+      </c>
+      <c r="E152" t="n">
+        <v>115</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4773</v>
+      </c>
+      <c r="G152" t="n">
+        <v>107719.6733230572</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>116</v>
+      </c>
+      <c r="C153" t="n">
+        <v>116</v>
+      </c>
+      <c r="D153" t="n">
+        <v>116</v>
+      </c>
+      <c r="E153" t="n">
+        <v>116</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3003</v>
+      </c>
+      <c r="G153" t="n">
+        <v>110722.6733230572</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>116</v>
+      </c>
+      <c r="C154" t="n">
+        <v>116</v>
+      </c>
+      <c r="D154" t="n">
+        <v>116</v>
+      </c>
+      <c r="E154" t="n">
+        <v>116</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G154" t="n">
+        <v>110722.6733230572</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>115</v>
+      </c>
+      <c r="C155" t="n">
+        <v>115</v>
+      </c>
+      <c r="D155" t="n">
+        <v>115</v>
+      </c>
+      <c r="E155" t="n">
+        <v>115</v>
+      </c>
+      <c r="F155" t="n">
+        <v>621</v>
+      </c>
+      <c r="G155" t="n">
+        <v>110101.6733230572</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>115</v>
+      </c>
+      <c r="C156" t="n">
+        <v>115</v>
+      </c>
+      <c r="D156" t="n">
+        <v>115</v>
+      </c>
+      <c r="E156" t="n">
+        <v>115</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2720</v>
+      </c>
+      <c r="G156" t="n">
+        <v>110101.6733230572</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest THETA.xlsx
+++ b/BackTest/2019-10-29 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>81929.66460000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>81853.94850000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J3" t="n">
+        <v>118</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +521,23 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J4" t="n">
-        <v>116</v>
-      </c>
-      <c r="K4" t="n">
-        <v>116</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,24 +562,23 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>116</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>118</v>
+      </c>
+      <c r="J5" t="n">
+        <v>118</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,22 +605,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>116</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,16 +638,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,16 +671,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,16 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -798,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,16 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -870,16 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,16 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,16 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,16 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1084,18 +1032,15 @@
         <v>112306.9509230572</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1120,18 +1065,15 @@
         <v>112306.9509230572</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,16 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,16 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1230,16 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,16 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,16 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,16 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1372,18 +1296,15 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1408,18 +1329,15 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1444,18 +1362,15 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1480,18 +1395,15 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1516,18 +1428,15 @@
         <v>108906.9745230572</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1552,18 +1461,15 @@
         <v>103596.0407230572</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1588,18 +1494,15 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1626,16 +1529,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,16 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,16 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1734,16 +1628,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1804,18 +1692,15 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1840,18 +1725,15 @@
         <v>91613.91202305716</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1793,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,16 +1826,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,16 +1859,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +1892,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,16 +1925,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2092,18 +1956,15 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +1991,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2164,18 +2022,15 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2057,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2090,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2123,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2156,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2189,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2222,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2255,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2288,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2321,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,16 +2354,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,16 +2387,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,16 +2420,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2632,18 +2451,15 @@
         <v>92661.13752305716</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,16 +2486,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2519,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2552,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,16 +2585,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,16 +2618,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2651,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,16 +2684,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2922,16 +2717,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2750,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +2783,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +2816,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3064,18 +2847,15 @@
         <v>116023.0504230572</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3100,18 +2880,15 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +2915,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3172,18 +2946,15 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3208,18 +2979,15 @@
         <v>125908.8131230572</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3244,18 +3012,15 @@
         <v>125911.6081230572</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3047,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,16 +3080,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,16 +3113,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3146,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3179,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3212,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3245,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3534,16 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3311,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3606,16 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,16 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,16 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,16 +3443,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3750,16 +3476,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3786,16 +3509,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3822,16 +3542,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,16 +3575,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3894,16 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,16 +3641,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3966,16 +3674,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4002,16 +3707,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4038,16 +3740,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,16 +3773,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4110,16 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,16 +3839,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4182,16 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4218,16 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4254,16 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4290,16 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4326,16 +4004,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4362,16 +4037,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4398,16 +4070,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4434,16 +4103,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4470,16 +4136,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4506,16 +4169,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4542,16 +4202,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4578,16 +4235,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4614,16 +4268,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4650,16 +4301,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4686,16 +4334,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4722,16 +4367,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4758,16 +4400,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4792,18 +4431,15 @@
         <v>105933.0878230572</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4830,16 +4466,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4866,16 +4499,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4902,16 +4532,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4938,16 +4565,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4974,16 +4598,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5010,16 +4631,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5046,16 +4664,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5082,16 +4697,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5118,16 +4730,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5154,16 +4763,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,16 +4796,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5226,16 +4829,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5262,16 +4862,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5298,16 +4895,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5334,16 +4928,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5370,16 +4961,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5406,16 +4994,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5442,16 +5027,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5478,16 +5060,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5514,16 +5093,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5550,16 +5126,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5586,16 +5159,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5622,16 +5192,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5658,16 +5225,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5694,16 +5258,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5730,16 +5291,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5766,16 +5324,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5802,16 +5357,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5838,16 +5390,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5874,16 +5423,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5910,16 +5456,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5946,16 +5489,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5982,16 +5522,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6018,18 +5555,15 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest THETA.xlsx
+++ b/BackTest/2019-10-29 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>81929.66460000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>81853.94850000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>118</v>
-      </c>
-      <c r="J3" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,15 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>116</v>
       </c>
       <c r="J4" t="n">
-        <v>118</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,13 +554,13 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>118</v>
       </c>
       <c r="J5" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -606,8 +598,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>116</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>112306.9509230572</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1065,7 +1063,7 @@
         <v>112306.9509230572</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1296,7 +1294,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1329,7 +1327,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1362,7 +1360,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1395,7 +1393,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1428,7 +1426,7 @@
         <v>108906.9745230572</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1461,7 +1459,7 @@
         <v>103596.0407230572</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1494,7 +1492,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1527,7 +1525,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1560,7 +1558,7 @@
         <v>92644.61022305716</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1593,7 +1591,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1626,7 +1624,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1659,7 +1657,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1692,7 +1690,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1725,7 +1723,7 @@
         <v>91613.91202305716</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1758,7 +1756,7 @@
         <v>116640.5400230572</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1791,7 +1789,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1824,7 +1822,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1857,7 +1855,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1890,7 +1888,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1923,7 +1921,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1956,7 +1954,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1989,7 +1987,7 @@
         <v>86832.85872305716</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2022,7 +2020,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2154,7 +2152,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2253,7 +2251,7 @@
         <v>93537.83642305716</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2451,7 +2449,7 @@
         <v>92661.13752305716</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2550,7 +2548,7 @@
         <v>99896.81782305715</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2583,7 +2581,7 @@
         <v>94106.56942305715</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2616,7 +2614,7 @@
         <v>94106.56942305715</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2649,7 +2647,7 @@
         <v>94106.56942305715</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2682,7 +2680,7 @@
         <v>106903.9595230572</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2715,7 +2713,7 @@
         <v>106903.9595230572</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2781,7 +2779,7 @@
         <v>106903.9595230572</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2814,7 +2812,7 @@
         <v>116103.9595230572</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2847,7 +2845,7 @@
         <v>116023.0504230572</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2880,7 +2878,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2913,7 +2911,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2946,7 +2944,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2979,7 +2977,7 @@
         <v>125908.8131230572</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3012,7 +3010,7 @@
         <v>125911.6081230572</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3045,7 +3043,7 @@
         <v>117881.7593230572</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3078,7 +3076,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3111,7 +3109,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3144,7 +3142,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3177,7 +3175,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3276,7 +3274,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3309,7 +3307,7 @@
         <v>102259.5601230572</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3342,7 +3340,7 @@
         <v>101928.3241230572</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3375,7 +3373,7 @@
         <v>103128.3241230572</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3408,7 +3406,7 @@
         <v>103128.3241230572</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3441,7 +3439,7 @@
         <v>103009.8158230572</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3507,7 +3505,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3540,7 +3538,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3573,7 +3571,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3606,7 +3604,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3639,7 +3637,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3672,7 +3670,7 @@
         <v>106477.9066230572</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3705,7 +3703,7 @@
         <v>103637.9066230572</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3738,7 +3736,7 @@
         <v>103637.9066230572</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3771,7 +3769,7 @@
         <v>106682.9066230572</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3804,7 +3802,7 @@
         <v>102979.9066230572</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3837,7 +3835,7 @@
         <v>102979.9066230572</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3870,7 +3868,7 @@
         <v>102979.9066230572</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4200,7 +4198,7 @@
         <v>113898.3078230572</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4233,7 +4231,7 @@
         <v>112253.0878230572</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,7 +4264,7 @@
         <v>112253.0878230572</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4299,7 +4297,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4330,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4365,7 +4363,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4398,7 +4396,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4431,7 +4429,7 @@
         <v>105933.0878230572</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4464,7 +4462,7 @@
         <v>109380.3333230572</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4596,7 +4594,7 @@
         <v>100863.7268230572</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5564,6 +5562,6 @@
       <c r="M156" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest THETA.xlsx
+++ b/BackTest/2019-10-29 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>81929.66460000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>81853.94850000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>116</v>
-      </c>
-      <c r="J4" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>118</v>
-      </c>
-      <c r="J5" t="n">
-        <v>116</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,17 +583,11 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>116</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -700,7 +682,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,7 +715,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -766,7 +748,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -799,7 +781,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -832,7 +814,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -865,7 +847,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -898,7 +880,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -931,7 +913,7 @@
         <v>121038.3642230572</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1327,7 +1309,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1360,7 +1342,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1393,7 +1375,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1426,7 +1408,7 @@
         <v>108906.9745230572</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1459,7 +1441,7 @@
         <v>103596.0407230572</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1492,7 +1474,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1525,7 +1507,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1558,7 +1540,7 @@
         <v>92644.61022305716</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1591,7 +1573,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1624,7 +1606,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1657,7 +1639,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1690,7 +1672,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1723,7 +1705,7 @@
         <v>91613.91202305716</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1756,7 +1738,7 @@
         <v>116640.5400230572</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1789,7 +1771,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1822,7 +1804,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1855,7 +1837,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1888,7 +1870,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1921,7 +1903,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +1936,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +1969,7 @@
         <v>86832.85872305716</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2152,7 +2134,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2251,7 +2233,7 @@
         <v>93537.83642305716</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2548,7 +2530,7 @@
         <v>99896.81782305715</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2563,7 @@
         <v>94106.56942305715</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2596,7 @@
         <v>94106.56942305715</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2629,7 @@
         <v>94106.56942305715</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2662,7 @@
         <v>106903.9595230572</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2695,7 @@
         <v>106903.9595230572</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2779,7 +2761,7 @@
         <v>106903.9595230572</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +2794,7 @@
         <v>116103.9595230572</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2827,7 @@
         <v>116023.0504230572</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2860,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +2893,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2926,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +2959,7 @@
         <v>125908.8131230572</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +2992,7 @@
         <v>125911.6081230572</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3025,7 @@
         <v>117881.7593230572</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3058,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3091,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3124,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3157,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3274,7 +3256,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3289,7 @@
         <v>102259.5601230572</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3340,7 +3322,7 @@
         <v>101928.3241230572</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3355,7 @@
         <v>103128.3241230572</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3388,7 @@
         <v>103128.3241230572</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3421,7 @@
         <v>103009.8158230572</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3505,7 +3487,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3520,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3571,7 +3553,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3586,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3619,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3652,7 @@
         <v>106477.9066230572</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3685,7 @@
         <v>103637.9066230572</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3736,7 +3718,7 @@
         <v>103637.9066230572</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3769,7 +3751,7 @@
         <v>106682.9066230572</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3784,7 @@
         <v>102979.9066230572</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3817,7 @@
         <v>102979.9066230572</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3850,7 @@
         <v>102979.9066230572</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4198,7 +4180,7 @@
         <v>113898.3078230572</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4213,7 @@
         <v>112253.0878230572</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4246,7 @@
         <v>112253.0878230572</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4279,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4312,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4345,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4378,7 @@
         <v>106435.0878230572</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4411,7 @@
         <v>105933.0878230572</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4444,7 @@
         <v>109380.3333230572</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4528,10 +4510,14 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>117</v>
+      </c>
+      <c r="J125" t="n">
+        <v>117</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4561,11 +4547,19 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>119</v>
+      </c>
+      <c r="J126" t="n">
+        <v>117</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4594,11 +4588,17 @@
         <v>100863.7268230572</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>117</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4627,10 +4627,14 @@
         <v>100863.7268230572</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>117</v>
+      </c>
+      <c r="J128" t="n">
+        <v>117</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4660,11 +4664,19 @@
         <v>105863.7268230572</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>117</v>
+      </c>
+      <c r="J129" t="n">
+        <v>117</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4696,8 +4708,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>117</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4759,10 +4777,14 @@
         <v>116197.8640230572</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>117</v>
+      </c>
+      <c r="J132" t="n">
+        <v>117</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4795,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>117</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4828,8 +4856,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>117</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5023,10 +5057,14 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>116</v>
+      </c>
+      <c r="J140" t="n">
+        <v>116</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5056,11 +5094,19 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>116</v>
+      </c>
+      <c r="J141" t="n">
+        <v>116</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +5135,19 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>116</v>
+      </c>
+      <c r="J142" t="n">
+        <v>116</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5122,10 +5176,14 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>116</v>
+      </c>
+      <c r="J143" t="n">
+        <v>116</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5155,11 +5213,19 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>116</v>
+      </c>
+      <c r="J144" t="n">
+        <v>116</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5188,11 +5254,19 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>116</v>
+      </c>
+      <c r="J145" t="n">
+        <v>116</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5224,8 +5298,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>116</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +5334,19 @@
         <v>114344.2901230572</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>117</v>
+      </c>
+      <c r="J147" t="n">
+        <v>116</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5290,8 +5378,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>116</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5417,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>116</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +5456,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>116</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +5495,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>116</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +5534,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>116</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +5570,19 @@
         <v>110722.6733230572</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>115</v>
+      </c>
+      <c r="J153" t="n">
+        <v>116</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>116</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5518,11 +5650,19 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>116</v>
+      </c>
+      <c r="J155" t="n">
+        <v>116</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5551,17 +5691,25 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>115</v>
+      </c>
+      <c r="J156" t="n">
+        <v>116</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest THETA.xlsx
+++ b/BackTest/2019-10-29 BackTest THETA.xlsx
@@ -451,7 +451,7 @@
         <v>81929.66460000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>81853.94850000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>118</v>
+      </c>
+      <c r="J3" t="n">
+        <v>118</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>116</v>
+      </c>
+      <c r="J4" t="n">
+        <v>118</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>118</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +601,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +700,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +733,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +766,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +799,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +832,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +865,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +898,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +931,7 @@
         <v>121038.3642230572</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1243,7 +1261,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1294,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1327,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1360,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1393,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1426,7 @@
         <v>108906.9745230572</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1459,7 @@
         <v>103596.0407230572</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1492,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1525,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1558,7 @@
         <v>92644.61022305716</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1591,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1624,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1657,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1690,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1723,7 @@
         <v>91613.91202305716</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1756,7 @@
         <v>116640.5400230572</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1789,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1822,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1855,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1888,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1921,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1954,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1987,7 @@
         <v>86832.85872305716</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2020,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2053,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2119,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2152,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2185,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2218,7 @@
         <v>93536.83642305716</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2926,7 +2944,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4114,7 +4132,7 @@
         <v>106828.5675230572</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4165,7 @@
         <v>106828.5675230572</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4510,14 +4528,10 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>117</v>
-      </c>
-      <c r="J125" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4547,19 +4561,11 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>119</v>
-      </c>
-      <c r="J126" t="n">
-        <v>117</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4591,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>117</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4627,14 +4627,10 @@
         <v>100863.7268230572</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>117</v>
-      </c>
-      <c r="J128" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4664,19 +4660,11 @@
         <v>105863.7268230572</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>117</v>
-      </c>
-      <c r="J129" t="n">
-        <v>117</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4708,14 +4696,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>117</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4759,10 @@
         <v>116197.8640230572</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>117</v>
-      </c>
-      <c r="J132" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4817,14 +4795,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>117</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +4828,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>117</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5057,14 +5023,10 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>116</v>
-      </c>
-      <c r="J140" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5094,19 +5056,11 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>116</v>
-      </c>
-      <c r="J141" t="n">
-        <v>116</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5135,19 +5089,11 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>116</v>
-      </c>
-      <c r="J142" t="n">
-        <v>116</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +5122,10 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>116</v>
-      </c>
-      <c r="J143" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5213,19 +5155,11 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>116</v>
-      </c>
-      <c r="J144" t="n">
-        <v>116</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5254,19 +5188,11 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>116</v>
-      </c>
-      <c r="J145" t="n">
-        <v>116</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5298,14 +5224,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>116</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5334,19 +5254,11 @@
         <v>114344.2901230572</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>117</v>
-      </c>
-      <c r="J147" t="n">
-        <v>116</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5378,14 +5290,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>116</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5417,14 +5323,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>116</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5456,14 +5356,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>116</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5495,14 +5389,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>116</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5534,14 +5422,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>116</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5570,19 +5452,11 @@
         <v>110722.6733230572</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>115</v>
-      </c>
-      <c r="J153" t="n">
-        <v>116</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5488,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>116</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5650,19 +5518,11 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>116</v>
-      </c>
-      <c r="J155" t="n">
-        <v>116</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5691,19 +5551,11 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>115</v>
-      </c>
-      <c r="J156" t="n">
-        <v>116</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest THETA.xlsx
+++ b/BackTest/2019-10-29 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>81929.66460000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>75.7161</v>
       </c>
       <c r="G3" t="n">
-        <v>81853.94850000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>118</v>
-      </c>
-      <c r="J3" t="n">
-        <v>118</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,98 +503,93 @@
         <v>11312.5269</v>
       </c>
       <c r="G4" t="n">
-        <v>93166.47540000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="I4" t="n">
         <v>116</v>
       </c>
-      <c r="J4" t="n">
-        <v>118</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C5" t="n">
+        <v>118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>118</v>
+      </c>
+      <c r="E5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F5" t="n">
+        <v>293</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>118</v>
+      </c>
+      <c r="I5" t="n">
+        <v>116</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>118</v>
-      </c>
-      <c r="C5" t="n">
-        <v>118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>118</v>
-      </c>
-      <c r="E5" t="n">
-        <v>118</v>
-      </c>
-      <c r="F5" t="n">
-        <v>293</v>
-      </c>
-      <c r="G5" t="n">
-        <v>93166.47540000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>118</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>118</v>
+      </c>
+      <c r="C6" t="n">
+        <v>119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>118</v>
+      </c>
+      <c r="F6" t="n">
+        <v>350.2441949579832</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>116</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>118</v>
-      </c>
-      <c r="C6" t="n">
-        <v>119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>119</v>
-      </c>
-      <c r="E6" t="n">
-        <v>118</v>
-      </c>
-      <c r="F6" t="n">
-        <v>350.2441949579832</v>
-      </c>
-      <c r="G6" t="n">
-        <v>93516.71959495799</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,18 +611,15 @@
         <v>600.9098</v>
       </c>
       <c r="G7" t="n">
-        <v>93516.71959495799</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,18 +641,19 @@
         <v>3406.9268</v>
       </c>
       <c r="G8" t="n">
-        <v>93516.71959495799</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="I8" t="n">
+        <v>119</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,18 +675,21 @@
         <v>23064.4559</v>
       </c>
       <c r="G9" t="n">
-        <v>93516.71959495799</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>119</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -730,18 +711,21 @@
         <v>651</v>
       </c>
       <c r="G10" t="n">
-        <v>93516.71959495799</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>119</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,18 +747,15 @@
         <v>13039</v>
       </c>
       <c r="G11" t="n">
-        <v>106555.719594958</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -796,18 +777,15 @@
         <v>3451.8645</v>
       </c>
       <c r="G12" t="n">
-        <v>106555.719594958</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,18 +807,15 @@
         <v>9340.431200000001</v>
       </c>
       <c r="G13" t="n">
-        <v>106555.719594958</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -862,18 +837,15 @@
         <v>8200</v>
       </c>
       <c r="G14" t="n">
-        <v>106555.719594958</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -895,18 +867,15 @@
         <v>2858.102</v>
       </c>
       <c r="G15" t="n">
-        <v>106555.719594958</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,18 +897,15 @@
         <v>14482.64462809917</v>
       </c>
       <c r="G16" t="n">
-        <v>121038.3642230572</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,18 +927,15 @@
         <v>1918.0081</v>
       </c>
       <c r="G17" t="n">
-        <v>122956.3723230572</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -994,18 +957,15 @@
         <v>10049.4214</v>
       </c>
       <c r="G18" t="n">
-        <v>112906.9509230572</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1027,18 +987,15 @@
         <v>600</v>
       </c>
       <c r="G19" t="n">
-        <v>112306.9509230572</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1060,18 +1017,15 @@
         <v>1913.2131</v>
       </c>
       <c r="G20" t="n">
-        <v>112306.9509230572</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1093,18 +1047,15 @@
         <v>2515.6083</v>
       </c>
       <c r="G21" t="n">
-        <v>112306.9509230572</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1126,18 +1077,15 @@
         <v>2895.1568</v>
       </c>
       <c r="G22" t="n">
-        <v>112306.9509230572</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1159,18 +1107,15 @@
         <v>650</v>
       </c>
       <c r="G23" t="n">
-        <v>112956.9509230572</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1192,18 +1137,15 @@
         <v>1549.0236</v>
       </c>
       <c r="G24" t="n">
-        <v>114505.9745230572</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1225,18 +1167,15 @@
         <v>1041.7336</v>
       </c>
       <c r="G25" t="n">
-        <v>114505.9745230572</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1258,18 +1197,15 @@
         <v>1537.5491</v>
       </c>
       <c r="G26" t="n">
-        <v>114505.9745230572</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1291,18 +1227,15 @@
         <v>4600</v>
       </c>
       <c r="G27" t="n">
-        <v>114505.9745230572</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1324,18 +1257,15 @@
         <v>28645.901</v>
       </c>
       <c r="G28" t="n">
-        <v>114505.9745230572</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,18 +1287,15 @@
         <v>5600</v>
       </c>
       <c r="G29" t="n">
-        <v>108905.9745230572</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1390,18 +1317,15 @@
         <v>1324.3429</v>
       </c>
       <c r="G30" t="n">
-        <v>108905.9745230572</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1423,18 +1347,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>108906.9745230572</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1456,18 +1377,15 @@
         <v>5310.9338</v>
       </c>
       <c r="G32" t="n">
-        <v>103596.0407230572</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1489,18 +1407,15 @@
         <v>3130.0496</v>
       </c>
       <c r="G33" t="n">
-        <v>100465.9911230572</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1522,18 +1437,15 @@
         <v>29.9322</v>
       </c>
       <c r="G34" t="n">
-        <v>100465.9911230572</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1555,18 +1467,15 @@
         <v>7821.3809</v>
       </c>
       <c r="G35" t="n">
-        <v>92644.61022305716</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1588,18 +1497,15 @@
         <v>250</v>
       </c>
       <c r="G36" t="n">
-        <v>92894.61022305716</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1621,18 +1527,15 @@
         <v>5295.0916</v>
       </c>
       <c r="G37" t="n">
-        <v>92894.61022305716</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1654,18 +1557,15 @@
         <v>618.909</v>
       </c>
       <c r="G38" t="n">
-        <v>93513.51922305716</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1687,18 +1587,15 @@
         <v>88.33880000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>93513.51922305716</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1720,18 +1617,15 @@
         <v>1899.6072</v>
       </c>
       <c r="G40" t="n">
-        <v>91613.91202305716</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1753,18 +1647,15 @@
         <v>25026.628</v>
       </c>
       <c r="G41" t="n">
-        <v>116640.5400230572</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1786,18 +1677,15 @@
         <v>4900</v>
       </c>
       <c r="G42" t="n">
-        <v>111740.5400230572</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1819,18 +1707,15 @@
         <v>3116.1666</v>
       </c>
       <c r="G43" t="n">
-        <v>111740.5400230572</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1852,18 +1737,15 @@
         <v>4066.4384</v>
       </c>
       <c r="G44" t="n">
-        <v>111740.5400230572</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1885,18 +1767,15 @@
         <v>24964.0614</v>
       </c>
       <c r="G45" t="n">
-        <v>86776.47862305716</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,18 +1797,15 @@
         <v>1628.6242</v>
       </c>
       <c r="G46" t="n">
-        <v>86776.47862305716</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1951,18 +1827,15 @@
         <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>86776.47862305716</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,18 +1857,15 @@
         <v>56.3801</v>
       </c>
       <c r="G48" t="n">
-        <v>86832.85872305716</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2017,18 +1887,15 @@
         <v>229.9216</v>
       </c>
       <c r="G49" t="n">
-        <v>86602.93712305716</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,18 +1917,15 @@
         <v>8000</v>
       </c>
       <c r="G50" t="n">
-        <v>86602.93712305716</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2083,18 +1947,15 @@
         <v>12.8583</v>
       </c>
       <c r="G51" t="n">
-        <v>86602.93712305716</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2116,18 +1977,15 @@
         <v>10600</v>
       </c>
       <c r="G52" t="n">
-        <v>97202.93712305716</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +2007,15 @@
         <v>623</v>
       </c>
       <c r="G53" t="n">
-        <v>97202.93712305716</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,18 +2037,15 @@
         <v>40023</v>
       </c>
       <c r="G54" t="n">
-        <v>97202.93712305716</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2215,18 +2067,15 @@
         <v>3666.1007</v>
       </c>
       <c r="G55" t="n">
-        <v>93536.83642305716</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2097,15 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>93537.83642305716</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2127,15 @@
         <v>1673.4544</v>
       </c>
       <c r="G57" t="n">
-        <v>91864.38202305716</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2157,15 @@
         <v>196.7555</v>
       </c>
       <c r="G58" t="n">
-        <v>92061.13752305716</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2187,15 @@
         <v>47902.0893</v>
       </c>
       <c r="G59" t="n">
-        <v>92061.13752305716</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2217,15 @@
         <v>600</v>
       </c>
       <c r="G60" t="n">
-        <v>92661.13752305716</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2247,15 @@
         <v>10683.0407</v>
       </c>
       <c r="G61" t="n">
-        <v>92661.13752305716</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2277,15 @@
         <v>651</v>
       </c>
       <c r="G62" t="n">
-        <v>92661.13752305716</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2307,15 @@
         <v>7235.6803</v>
       </c>
       <c r="G63" t="n">
-        <v>99896.81782305715</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2337,15 @@
         <v>7834.0163</v>
       </c>
       <c r="G64" t="n">
-        <v>99896.81782305715</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2367,15 @@
         <v>119.3975</v>
       </c>
       <c r="G65" t="n">
-        <v>99896.81782305715</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2397,15 @@
         <v>5790.2484</v>
       </c>
       <c r="G66" t="n">
-        <v>94106.56942305715</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2427,15 @@
         <v>3700</v>
       </c>
       <c r="G67" t="n">
-        <v>94106.56942305715</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2457,15 @@
         <v>2630.7833</v>
       </c>
       <c r="G68" t="n">
-        <v>94106.56942305715</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,18 +2487,15 @@
         <v>12797.3901</v>
       </c>
       <c r="G69" t="n">
-        <v>106903.9595230572</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,18 +2517,15 @@
         <v>9900.641600000001</v>
       </c>
       <c r="G70" t="n">
-        <v>106903.9595230572</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2547,15 @@
         <v>434.1052</v>
       </c>
       <c r="G71" t="n">
-        <v>106903.9595230572</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2577,15 @@
         <v>56.2392</v>
       </c>
       <c r="G72" t="n">
-        <v>106903.9595230572</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2607,15 @@
         <v>9200</v>
       </c>
       <c r="G73" t="n">
-        <v>116103.9595230572</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2637,15 @@
         <v>80.9091</v>
       </c>
       <c r="G74" t="n">
-        <v>116023.0504230572</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2667,15 @@
         <v>10217.5997</v>
       </c>
       <c r="G75" t="n">
-        <v>126240.6501230572</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,18 +2697,15 @@
         <v>8269.441199999999</v>
       </c>
       <c r="G76" t="n">
-        <v>126240.6501230572</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2941,18 +2727,15 @@
         <v>25386.4262</v>
       </c>
       <c r="G77" t="n">
-        <v>126240.6501230572</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +2757,15 @@
         <v>331.837</v>
       </c>
       <c r="G78" t="n">
-        <v>125908.8131230572</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +2787,15 @@
         <v>2.795</v>
       </c>
       <c r="G79" t="n">
-        <v>125911.6081230572</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,18 +2817,15 @@
         <v>8029.8488</v>
       </c>
       <c r="G80" t="n">
-        <v>117881.7593230572</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,18 +2847,15 @@
         <v>25322.9602</v>
       </c>
       <c r="G81" t="n">
-        <v>92558.79912305716</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3106,18 +2877,15 @@
         <v>15610.6509</v>
       </c>
       <c r="G82" t="n">
-        <v>92558.79912305716</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3139,18 +2907,15 @@
         <v>9890.384099999999</v>
       </c>
       <c r="G83" t="n">
-        <v>92558.79912305716</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3172,18 +2937,15 @@
         <v>965.9058</v>
       </c>
       <c r="G84" t="n">
-        <v>92558.79912305716</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3205,18 +2967,15 @@
         <v>2978</v>
       </c>
       <c r="G85" t="n">
-        <v>92558.79912305716</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3238,18 +2997,15 @@
         <v>8870.570100000001</v>
       </c>
       <c r="G86" t="n">
-        <v>92558.79912305716</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3271,18 +3027,15 @@
         <v>6850</v>
       </c>
       <c r="G87" t="n">
-        <v>92558.79912305716</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3304,18 +3057,15 @@
         <v>9700.761</v>
       </c>
       <c r="G88" t="n">
-        <v>102259.5601230572</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3337,18 +3087,15 @@
         <v>331.236</v>
       </c>
       <c r="G89" t="n">
-        <v>101928.3241230572</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3370,18 +3117,15 @@
         <v>1200</v>
       </c>
       <c r="G90" t="n">
-        <v>103128.3241230572</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3403,18 +3147,15 @@
         <v>600</v>
       </c>
       <c r="G91" t="n">
-        <v>103128.3241230572</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3436,18 +3177,15 @@
         <v>118.5083</v>
       </c>
       <c r="G92" t="n">
-        <v>103009.8158230572</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3469,18 +3207,15 @@
         <v>680</v>
       </c>
       <c r="G93" t="n">
-        <v>102329.8158230572</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3502,18 +3237,15 @@
         <v>8042</v>
       </c>
       <c r="G94" t="n">
-        <v>102329.8158230572</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3535,18 +3267,15 @@
         <v>1950</v>
       </c>
       <c r="G95" t="n">
-        <v>102329.8158230572</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3568,18 +3297,15 @@
         <v>1932</v>
       </c>
       <c r="G96" t="n">
-        <v>102329.8158230572</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3601,18 +3327,15 @@
         <v>1949</v>
       </c>
       <c r="G97" t="n">
-        <v>102329.8158230572</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3634,18 +3357,15 @@
         <v>9782.753699999999</v>
       </c>
       <c r="G98" t="n">
-        <v>102329.8158230572</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3667,18 +3387,15 @@
         <v>4148.0908</v>
       </c>
       <c r="G99" t="n">
-        <v>106477.9066230572</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3700,18 +3417,15 @@
         <v>2840</v>
       </c>
       <c r="G100" t="n">
-        <v>103637.9066230572</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3733,18 +3447,15 @@
         <v>10400.6609</v>
       </c>
       <c r="G101" t="n">
-        <v>103637.9066230572</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3766,18 +3477,15 @@
         <v>3045</v>
       </c>
       <c r="G102" t="n">
-        <v>106682.9066230572</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3799,18 +3507,15 @@
         <v>3703</v>
       </c>
       <c r="G103" t="n">
-        <v>102979.9066230572</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3832,18 +3537,15 @@
         <v>5080.5126</v>
       </c>
       <c r="G104" t="n">
-        <v>102979.9066230572</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3865,18 +3567,15 @@
         <v>6797</v>
       </c>
       <c r="G105" t="n">
-        <v>102979.9066230572</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3898,18 +3597,15 @@
         <v>10541.9998</v>
       </c>
       <c r="G106" t="n">
-        <v>102979.9066230572</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3931,18 +3627,15 @@
         <v>26235.8442</v>
       </c>
       <c r="G107" t="n">
-        <v>102979.9066230572</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3964,18 +3657,15 @@
         <v>5000</v>
       </c>
       <c r="G108" t="n">
-        <v>102979.9066230572</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3997,18 +3687,15 @@
         <v>8025.6609</v>
       </c>
       <c r="G109" t="n">
-        <v>111005.5675230572</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4030,18 +3717,15 @@
         <v>5205</v>
       </c>
       <c r="G110" t="n">
-        <v>105800.5675230572</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4063,18 +3747,15 @@
         <v>8306</v>
       </c>
       <c r="G111" t="n">
-        <v>114106.5675230572</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4096,18 +3777,15 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>114107.5675230572</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4129,18 +3807,15 @@
         <v>7279</v>
       </c>
       <c r="G113" t="n">
-        <v>106828.5675230572</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4162,18 +3837,15 @@
         <v>1516</v>
       </c>
       <c r="G114" t="n">
-        <v>106828.5675230572</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4195,18 +3867,15 @@
         <v>7069.7403</v>
       </c>
       <c r="G115" t="n">
-        <v>113898.3078230572</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4228,18 +3897,15 @@
         <v>1645.22</v>
       </c>
       <c r="G116" t="n">
-        <v>112253.0878230572</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4261,18 +3927,15 @@
         <v>1.0084</v>
       </c>
       <c r="G117" t="n">
-        <v>112253.0878230572</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4294,18 +3957,15 @@
         <v>5818</v>
       </c>
       <c r="G118" t="n">
-        <v>106435.0878230572</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4327,18 +3987,15 @@
         <v>498</v>
       </c>
       <c r="G119" t="n">
-        <v>106435.0878230572</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4360,18 +4017,15 @@
         <v>3992</v>
       </c>
       <c r="G120" t="n">
-        <v>106435.0878230572</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4393,18 +4047,15 @@
         <v>10549.1423</v>
       </c>
       <c r="G121" t="n">
-        <v>106435.0878230572</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4426,18 +4077,15 @@
         <v>502</v>
       </c>
       <c r="G122" t="n">
-        <v>105933.0878230572</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4459,18 +4107,15 @@
         <v>3447.2455</v>
       </c>
       <c r="G123" t="n">
-        <v>109380.3333230572</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4492,18 +4137,15 @@
         <v>4309</v>
       </c>
       <c r="G124" t="n">
-        <v>105071.3333230572</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4525,18 +4167,15 @@
         <v>599.3935</v>
       </c>
       <c r="G125" t="n">
-        <v>105670.7268230572</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4558,18 +4197,15 @@
         <v>23680.4873</v>
       </c>
       <c r="G126" t="n">
-        <v>105670.7268230572</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4591,18 +4227,15 @@
         <v>4807</v>
       </c>
       <c r="G127" t="n">
-        <v>100863.7268230572</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4624,18 +4257,15 @@
         <v>23621.286</v>
       </c>
       <c r="G128" t="n">
-        <v>100863.7268230572</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4657,18 +4287,15 @@
         <v>5000</v>
       </c>
       <c r="G129" t="n">
-        <v>105863.7268230572</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4690,18 +4317,15 @@
         <v>7426</v>
       </c>
       <c r="G130" t="n">
-        <v>113289.7268230572</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4723,18 +4347,15 @@
         <v>99.84999999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>113189.8768230572</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4756,18 +4377,15 @@
         <v>3007.9872</v>
       </c>
       <c r="G132" t="n">
-        <v>116197.8640230572</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4789,18 +4407,15 @@
         <v>14555.6403</v>
       </c>
       <c r="G133" t="n">
-        <v>116197.8640230572</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4822,18 +4437,15 @@
         <v>8745.234899999999</v>
       </c>
       <c r="G134" t="n">
-        <v>107452.6291230572</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4855,18 +4467,15 @@
         <v>470.4266</v>
       </c>
       <c r="G135" t="n">
-        <v>107452.6291230572</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4888,18 +4497,15 @@
         <v>280.9258</v>
       </c>
       <c r="G136" t="n">
-        <v>107452.6291230572</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4921,18 +4527,15 @@
         <v>168</v>
       </c>
       <c r="G137" t="n">
-        <v>107620.6291230572</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4954,18 +4557,15 @@
         <v>2891</v>
       </c>
       <c r="G138" t="n">
-        <v>104729.6291230572</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4987,18 +4587,15 @@
         <v>1592</v>
       </c>
       <c r="G139" t="n">
-        <v>104729.6291230572</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5020,18 +4617,19 @@
         <v>1503</v>
       </c>
       <c r="G140" t="n">
-        <v>104729.6291230572</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I140" t="n">
+        <v>116</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5053,18 +4651,21 @@
         <v>3487</v>
       </c>
       <c r="G141" t="n">
-        <v>104729.6291230572</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>116</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5086,18 +4687,21 @@
         <v>1834.6413</v>
       </c>
       <c r="G142" t="n">
-        <v>104729.6291230572</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>116</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5119,18 +4723,15 @@
         <v>3741.2271</v>
       </c>
       <c r="G143" t="n">
-        <v>104729.6291230572</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5152,18 +4753,15 @@
         <v>2557.7279</v>
       </c>
       <c r="G144" t="n">
-        <v>104729.6291230572</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5185,18 +4783,15 @@
         <v>306.7918</v>
       </c>
       <c r="G145" t="n">
-        <v>104729.6291230572</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5218,18 +4813,15 @@
         <v>9614.661</v>
       </c>
       <c r="G146" t="n">
-        <v>114344.2901230572</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5251,18 +4843,15 @@
         <v>14300</v>
       </c>
       <c r="G147" t="n">
-        <v>114344.2901230572</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5284,18 +4873,15 @@
         <v>1851.6168</v>
       </c>
       <c r="G148" t="n">
-        <v>112492.6733230572</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5317,18 +4903,21 @@
         <v>1009.0376</v>
       </c>
       <c r="G149" t="n">
-        <v>112492.6733230572</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5350,18 +4939,21 @@
         <v>1677.0376</v>
       </c>
       <c r="G150" t="n">
-        <v>112492.6733230572</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5383,18 +4975,21 @@
         <v>288.0277</v>
       </c>
       <c r="G151" t="n">
-        <v>112492.6733230572</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5416,18 +5011,21 @@
         <v>4773</v>
       </c>
       <c r="G152" t="n">
-        <v>107719.6733230572</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5449,18 +5047,19 @@
         <v>3003</v>
       </c>
       <c r="G153" t="n">
-        <v>110722.6733230572</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5482,18 +5081,21 @@
         <v>1100</v>
       </c>
       <c r="G154" t="n">
-        <v>110722.6733230572</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5515,18 +5117,19 @@
         <v>621</v>
       </c>
       <c r="G155" t="n">
-        <v>110101.6733230572</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5548,18 +5151,19 @@
         <v>2720</v>
       </c>
       <c r="G156" t="n">
-        <v>110101.6733230572</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
